--- a/Code_For_Figures_and_Analysis/Phages_in_Lake_Metagenomes_Analysis_Data/fai/Final_Results/Candidate_Homologous_Gene_Clusters.xlsx
+++ b/Code_For_Figures_and_Analysis/Phages_in_Lake_Metagenomes_Analysis_Data/fai/Final_Results/Candidate_Homologous_Gene_Clusters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="150">
   <si>
     <t>Data Dictionary describing columns of "Overview" spreadsheets can be found on fai's Wiki page at:</t>
   </si>
@@ -408,7 +408,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>1,1,1,1,1,1,0,0,1,1,0,0,1,1,1,1,0,0,0,0,0,0,1,1,1,1,1,1,1,1,1,1,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,1,1,1,1,2,2,2,2,2,2,2,2,2,2,2,2,2,2,1,1,2,2,2,2,2,2,2,2,0,0,2,2,1,1,2,2,1,1,2,2,2,2,1,1,1,1,0,0,2,0,0,2,0</t>
+    <t>1,1,1,1,1,1,0,0,1,1,0,0,1,1,1,1,0,0,0,0,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,0,0,1,0,0,1,0</t>
   </si>
   <si>
     <t>2,2,1,1,1,1,0,0,1,1,0,0,1,1,1,1,0,0,0,0,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2,0,0,2,2,1,1,1,1,1,1,1,1,1,1,1,1,1,1,0,0,1,0,0,1,0</t>
@@ -438,43 +438,34 @@
     <t>syntenic-correlation</t>
   </si>
   <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Phage_in_Lake_MGs/fai_Results_v1.3.19_noSyntReq/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485158_contigs_fai-gene-cluster-2.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Phage_in_Lake_MGs/fai_Results_v1.3.19_noSyntReq/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485158_contigs_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Phage_in_Lake_MGs/fai_Results_v1.3.19_noSyntReq/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485169_contigs_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Phage_in_Lake_MGs/fai_Results_v1.3.19_noSyntReq/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485166_contigs_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Phage_in_Lake_MGs/fai_Results_v1.3.19_noSyntReq/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485160_contigs_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Phage_in_Lake_MGs/fai_Results_v1.3.19_noSyntReq/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485165_contigs_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Phage_in_Lake_MGs/fai_Results_v1.3.19_noSyntReq/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485167_contigs_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Phage_in_Lake_MGs/fai_Results_v1.3.19_noSyntReq/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485161_contigs_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Phage_in_Lake_MGs/fai_Results_v1.3.19_noSyntReq/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485164_contigs_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Phage_in_Lake_MGs/fai_Results_v1.3.19_noSyntReq/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485157_contigs_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Phage_in_Lake_MGs/fai_Results_v1.3.19_noSyntReq/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485162_contigs_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,0,0,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,0,0,1,1,1,1,1,1,1,1,0,0,1,1,0,0,1,1,0,0,1,1,1,1,0,0,0,0,0,0,1,0,0,1,0</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,0,0,1,1,0,0,1,1,1,1,0,0,0,0,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,0,0,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,0,0,1,0,0,1,0</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Phage_in_Lake_MGs/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485158_contigs_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Phage_in_Lake_MGs/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485169_contigs_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Phage_in_Lake_MGs/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485166_contigs_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Phage_in_Lake_MGs/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485160_contigs_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Phage_in_Lake_MGs/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485165_contigs_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Phage_in_Lake_MGs/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485167_contigs_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Phage_in_Lake_MGs/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485161_contigs_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Phage_in_Lake_MGs/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485164_contigs_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Phage_in_Lake_MGs/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485157_contigs_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Phage_in_Lake_MGs/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/Ga0485162_contigs_fai-gene-cluster-1.gbk</t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1271,10 @@
         <v>129</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>130</v>
@@ -4796,7 +4787,7 @@
       <formula>NA</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA12">
+  <conditionalFormatting sqref="AA2:AA11">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -4816,7 +4807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC12">
+  <conditionalFormatting sqref="AC2:AC11">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -4836,7 +4827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE12">
+  <conditionalFormatting sqref="AE2:AE11">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -4856,7 +4847,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG12">
+  <conditionalFormatting sqref="AG2:AG11">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -4876,7 +4867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI12">
+  <conditionalFormatting sqref="AI2:AI11">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -4896,7 +4887,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK12">
+  <conditionalFormatting sqref="AK2:AK11">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -4916,7 +4907,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM12">
+  <conditionalFormatting sqref="AM2:AM11">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -4936,7 +4927,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO12">
+  <conditionalFormatting sqref="AO2:AO11">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -4956,7 +4947,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ12">
+  <conditionalFormatting sqref="AQ2:AQ11">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -4976,7 +4967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AS12">
+  <conditionalFormatting sqref="AS2:AS11">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -4996,7 +4987,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU2:AU12">
+  <conditionalFormatting sqref="AU2:AU11">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5016,7 +5007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW2:AW12">
+  <conditionalFormatting sqref="AW2:AW11">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5036,7 +5027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY2:AY12">
+  <conditionalFormatting sqref="AY2:AY11">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5066,7 +5057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BA12">
+  <conditionalFormatting sqref="BA2:BA11">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5086,7 +5077,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC2:BC12">
+  <conditionalFormatting sqref="BC2:BC11">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5106,7 +5097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE2:BE12">
+  <conditionalFormatting sqref="BE2:BE11">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5126,7 +5117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG2:BG12">
+  <conditionalFormatting sqref="BG2:BG11">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5146,7 +5137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI2:BI12">
+  <conditionalFormatting sqref="BI2:BI11">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5166,7 +5157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BK12">
+  <conditionalFormatting sqref="BK2:BK11">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5186,7 +5177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM2:BM12">
+  <conditionalFormatting sqref="BM2:BM11">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5206,7 +5197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO2:BO12">
+  <conditionalFormatting sqref="BO2:BO11">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5226,7 +5217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ2:BQ12">
+  <conditionalFormatting sqref="BQ2:BQ11">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5246,7 +5237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS2:BS12">
+  <conditionalFormatting sqref="BS2:BS11">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5266,7 +5257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU2:BU12">
+  <conditionalFormatting sqref="BU2:BU11">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5286,7 +5277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW2:BW12">
+  <conditionalFormatting sqref="BW2:BW11">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5306,7 +5297,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY2:BY12">
+  <conditionalFormatting sqref="BY2:BY11">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5336,7 +5327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA2:CA12">
+  <conditionalFormatting sqref="CA2:CA11">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5356,7 +5347,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC2:CC12">
+  <conditionalFormatting sqref="CC2:CC11">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5376,7 +5367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE2:CE12">
+  <conditionalFormatting sqref="CE2:CE11">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5396,7 +5387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG2:CG12">
+  <conditionalFormatting sqref="CG2:CG11">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5416,7 +5407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI2:CI12">
+  <conditionalFormatting sqref="CI2:CI11">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5436,7 +5427,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK2:CK12">
+  <conditionalFormatting sqref="CK2:CK11">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5456,7 +5447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM2:CM12">
+  <conditionalFormatting sqref="CM2:CM11">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5476,7 +5467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO2:CO12">
+  <conditionalFormatting sqref="CO2:CO11">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5496,7 +5487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CQ2:CQ12">
+  <conditionalFormatting sqref="CQ2:CQ11">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5516,7 +5507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CS2:CS12">
+  <conditionalFormatting sqref="CS2:CS11">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5536,7 +5527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CU2:CU12">
+  <conditionalFormatting sqref="CU2:CU11">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5556,7 +5547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW2:CW12">
+  <conditionalFormatting sqref="CW2:CW11">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5576,7 +5567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CY2:CY12">
+  <conditionalFormatting sqref="CY2:CY11">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5606,7 +5597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DA2:DA12">
+  <conditionalFormatting sqref="DA2:DA11">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5626,7 +5617,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DC2:DC12">
+  <conditionalFormatting sqref="DC2:DC11">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5646,7 +5637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DE2:DE12">
+  <conditionalFormatting sqref="DE2:DE11">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5666,7 +5657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DG2:DG12">
+  <conditionalFormatting sqref="DG2:DG11">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5686,7 +5677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DI2:DI12">
+  <conditionalFormatting sqref="DI2:DI11">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5706,7 +5697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DK2:DK12">
+  <conditionalFormatting sqref="DK2:DK11">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5726,7 +5717,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DM2:DM12">
+  <conditionalFormatting sqref="DM2:DM11">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5746,7 +5737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DO2:DO12">
+  <conditionalFormatting sqref="DO2:DO11">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5766,7 +5757,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DQ2:DQ12">
+  <conditionalFormatting sqref="DQ2:DQ11">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5786,7 +5777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DS2:DS12">
+  <conditionalFormatting sqref="DS2:DS11">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5806,7 +5797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DU2:DU12">
+  <conditionalFormatting sqref="DU2:DU11">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5826,7 +5817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DW2:DW12">
+  <conditionalFormatting sqref="DW2:DW11">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5846,7 +5837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DY2:DY12">
+  <conditionalFormatting sqref="DY2:DY11">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5876,7 +5867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EA2:EA12">
+  <conditionalFormatting sqref="EA2:EA11">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5896,7 +5887,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EC2:EC12">
+  <conditionalFormatting sqref="EC2:EC11">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5916,7 +5907,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EE2:EE12">
+  <conditionalFormatting sqref="EE2:EE11">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5936,7 +5927,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EG2:EG12">
+  <conditionalFormatting sqref="EG2:EG11">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5956,7 +5947,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EI2:EI12">
+  <conditionalFormatting sqref="EI2:EI11">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5976,7 +5967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EK2:EK12">
+  <conditionalFormatting sqref="EK2:EK11">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -5996,7 +5987,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EM2:EM12">
+  <conditionalFormatting sqref="EM2:EM11">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6016,7 +6007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EO2:EO12">
+  <conditionalFormatting sqref="EO2:EO11">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6036,7 +6027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EQ2:EQ12">
+  <conditionalFormatting sqref="EQ2:EQ11">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6056,7 +6047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="ES2:ES12">
+  <conditionalFormatting sqref="ES2:ES11">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6076,7 +6067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EU2:EU12">
+  <conditionalFormatting sqref="EU2:EU11">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6096,7 +6087,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EW2:EW12">
+  <conditionalFormatting sqref="EW2:EW11">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6116,7 +6107,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EY2:EY12">
+  <conditionalFormatting sqref="EY2:EY11">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6146,7 +6137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FA2:FA12">
+  <conditionalFormatting sqref="FA2:FA11">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6166,7 +6157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FC2:FC12">
+  <conditionalFormatting sqref="FC2:FC11">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6186,7 +6177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FE2:FE12">
+  <conditionalFormatting sqref="FE2:FE11">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6206,7 +6197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FG2:FG12">
+  <conditionalFormatting sqref="FG2:FG11">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6226,7 +6217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FI2:FI12">
+  <conditionalFormatting sqref="FI2:FI11">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6246,7 +6237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FK2:FK12">
+  <conditionalFormatting sqref="FK2:FK11">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6266,7 +6257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FM2:FM12">
+  <conditionalFormatting sqref="FM2:FM11">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6286,7 +6277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FO2:FO12">
+  <conditionalFormatting sqref="FO2:FO11">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6306,7 +6297,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FQ2:FQ12">
+  <conditionalFormatting sqref="FQ2:FQ11">
     <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6326,7 +6317,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FS2:FS12">
+  <conditionalFormatting sqref="FS2:FS11">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6346,7 +6337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FU2:FU12">
+  <conditionalFormatting sqref="FU2:FU11">
     <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6366,7 +6357,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FW2:FW12">
+  <conditionalFormatting sqref="FW2:FW11">
     <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6386,7 +6377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FY2:FY12">
+  <conditionalFormatting sqref="FY2:FY11">
     <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6406,7 +6397,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GA2:GA12">
+  <conditionalFormatting sqref="GA2:GA11">
     <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6426,7 +6417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GC2:GC12">
+  <conditionalFormatting sqref="GC2:GC11">
     <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6446,7 +6437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GE2:GE12">
+  <conditionalFormatting sqref="GE2:GE11">
     <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6466,7 +6457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GG2:GG12">
+  <conditionalFormatting sqref="GG2:GG11">
     <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6486,7 +6477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GI2:GI12">
+  <conditionalFormatting sqref="GI2:GI11">
     <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6506,7 +6497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GK2:GK12">
+  <conditionalFormatting sqref="GK2:GK11">
     <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6526,7 +6517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GM2:GM12">
+  <conditionalFormatting sqref="GM2:GM11">
     <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6546,7 +6537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GO2:GO12">
+  <conditionalFormatting sqref="GO2:GO11">
     <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6566,7 +6557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GQ2:GQ12">
+  <conditionalFormatting sqref="GQ2:GQ11">
     <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6586,7 +6577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GS2:GS12">
+  <conditionalFormatting sqref="GS2:GS11">
     <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6606,7 +6597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GU2:GU12">
+  <conditionalFormatting sqref="GU2:GU11">
     <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6626,7 +6617,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GW2:GW12">
+  <conditionalFormatting sqref="GW2:GW11">
     <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6646,7 +6637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GY2:GY12">
+  <conditionalFormatting sqref="GY2:GY11">
     <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6666,7 +6657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HA2:HA12">
+  <conditionalFormatting sqref="HA2:HA11">
     <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6686,7 +6677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HC2:HC12">
+  <conditionalFormatting sqref="HC2:HC11">
     <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6706,7 +6697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HE2:HE12">
+  <conditionalFormatting sqref="HE2:HE11">
     <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6726,7 +6717,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HG2:HG12">
+  <conditionalFormatting sqref="HG2:HG11">
     <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6746,7 +6737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K12">
+  <conditionalFormatting sqref="K2:K11">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6766,7 +6757,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M12">
+  <conditionalFormatting sqref="M2:M11">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6786,7 +6777,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O12">
+  <conditionalFormatting sqref="O2:O11">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6806,7 +6797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q12">
+  <conditionalFormatting sqref="Q2:Q11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6826,7 +6817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S12">
+  <conditionalFormatting sqref="S2:S11">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6846,7 +6837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U12">
+  <conditionalFormatting sqref="U2:U11">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6866,7 +6857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W12">
+  <conditionalFormatting sqref="W2:W11">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6886,7 +6877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y12">
+  <conditionalFormatting sqref="Y2:Y11">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -6912,7 +6903,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DM12"/>
+  <dimension ref="A1:DM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7282,43 +7273,43 @@
         <v>140</v>
       </c>
       <c r="C2">
-        <v>19102.6</v>
+        <v>38330.8</v>
       </c>
       <c r="D2">
-        <v>85.61199999999999</v>
+        <v>99.86499999999999</v>
       </c>
       <c r="E2">
-        <v>1.12</v>
+        <v>1.101</v>
       </c>
       <c r="F2">
-        <v>0.4854368932038835</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="G2" t="s">
         <v>129</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.001</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.326</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.013</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -7327,10 +7318,10 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.004</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7339,16 +7330,16 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.014</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1.113</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7369,172 +7360,172 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.005</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1.007</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1.005</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.003</v>
       </c>
       <c r="AP2">
-        <v>75.7</v>
+        <v>100</v>
       </c>
       <c r="AQ2">
-        <v>0.341</v>
+        <v>1.022</v>
       </c>
       <c r="AR2">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="AS2">
-        <v>0.989</v>
+        <v>1.011</v>
       </c>
       <c r="AT2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AU2">
         <v>1.001</v>
       </c>
       <c r="AV2">
-        <v>90.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="AW2">
         <v>1.006</v>
       </c>
       <c r="AX2">
-        <v>83.5</v>
+        <v>100</v>
       </c>
       <c r="AY2">
         <v>1.004</v>
       </c>
       <c r="AZ2">
-        <v>93.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="BA2">
         <v>1.01</v>
       </c>
       <c r="BB2">
-        <v>76.2</v>
+        <v>100</v>
       </c>
       <c r="BC2">
-        <v>0.963</v>
+        <v>1.003</v>
       </c>
       <c r="BD2">
-        <v>89.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="BE2">
-        <v>1.019</v>
+        <v>1.006</v>
       </c>
       <c r="BF2">
-        <v>96.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="BG2">
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>1.015</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>1.012</v>
       </c>
       <c r="BL2">
-        <v>75.5</v>
+        <v>100</v>
       </c>
       <c r="BM2">
         <v>1.019</v>
       </c>
       <c r="BN2">
-        <v>70.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="BO2">
         <v>1.019</v>
       </c>
       <c r="BP2">
-        <v>91.7</v>
+        <v>100</v>
       </c>
       <c r="BQ2">
-        <v>1.012</v>
+        <v>1.006</v>
       </c>
       <c r="BR2">
-        <v>86.8</v>
+        <v>100</v>
       </c>
       <c r="BS2">
         <v>1.009</v>
       </c>
       <c r="BT2">
-        <v>80.3</v>
+        <v>100</v>
       </c>
       <c r="BU2">
-        <v>0.907</v>
+        <v>1.002</v>
       </c>
       <c r="BV2">
-        <v>89.8</v>
+        <v>100</v>
       </c>
       <c r="BW2">
-        <v>0.988</v>
+        <v>1.001</v>
       </c>
       <c r="BX2">
-        <v>86.7</v>
+        <v>100</v>
       </c>
       <c r="BY2">
-        <v>1</v>
+        <v>1.003</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>0.948</v>
       </c>
       <c r="CB2">
-        <v>79.2</v>
+        <v>100</v>
       </c>
       <c r="CC2">
-        <v>1</v>
+        <v>1.002</v>
       </c>
       <c r="CD2">
-        <v>94.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="CE2">
         <v>1.219</v>
       </c>
       <c r="CF2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="CG2">
         <v>1.011</v>
       </c>
       <c r="CH2">
-        <v>94.2</v>
+        <v>100</v>
       </c>
       <c r="CI2">
-        <v>1.071</v>
+        <v>1.018</v>
       </c>
       <c r="CJ2">
         <v>0</v>
@@ -7543,52 +7534,52 @@
         <v>0</v>
       </c>
       <c r="CL2">
-        <v>93.5</v>
+        <v>100</v>
       </c>
       <c r="CM2">
-        <v>3.794</v>
+        <v>3.853</v>
       </c>
       <c r="CN2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CO2">
-        <v>0</v>
+        <v>1.016</v>
       </c>
       <c r="CP2">
-        <v>91.8</v>
+        <v>100</v>
       </c>
       <c r="CQ2">
         <v>1.008</v>
       </c>
       <c r="CR2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CS2">
-        <v>0</v>
+        <v>1.002</v>
       </c>
       <c r="CT2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="CU2">
         <v>1.197</v>
       </c>
       <c r="CV2">
-        <v>75.3</v>
+        <v>100</v>
       </c>
       <c r="CW2">
-        <v>0.995</v>
+        <v>1.005</v>
       </c>
       <c r="CX2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>1.007</v>
       </c>
       <c r="CZ2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DA2">
-        <v>0</v>
+        <v>1.006</v>
       </c>
       <c r="DB2">
         <v>0</v>
@@ -7603,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="DF2">
-        <v>79.7</v>
+        <v>100</v>
       </c>
       <c r="DG2">
         <v>1.797</v>
@@ -7621,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="DL2">
-        <v>80.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="DM2">
         <v>1.02</v>
@@ -7629,7 +7620,7 @@
     </row>
     <row r="3" spans="1:117">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>141</v>
@@ -7650,10 +7641,10 @@
         <v>129</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="J3">
         <v>99.90000000000001</v>
@@ -7982,31 +7973,31 @@
     </row>
     <row r="4" spans="1:117">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>142</v>
       </c>
       <c r="C4">
-        <v>38330.8</v>
+        <v>38978.8</v>
       </c>
       <c r="D4">
-        <v>99.86499999999999</v>
+        <v>99.873</v>
       </c>
       <c r="E4">
-        <v>1.101</v>
+        <v>1.099</v>
       </c>
       <c r="F4">
-        <v>0.8349514563106796</v>
+        <v>0.8737864077669902</v>
       </c>
       <c r="G4" t="s">
         <v>129</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J4">
         <v>99.90000000000001</v>
@@ -8027,10 +8018,10 @@
         <v>1.013</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.011</v>
       </c>
       <c r="R4">
         <v>100</v>
@@ -8039,10 +8030,10 @@
         <v>1.004</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.019</v>
       </c>
       <c r="V4">
         <v>100</v>
@@ -8213,10 +8204,10 @@
         <v>1.003</v>
       </c>
       <c r="BZ4">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="CA4">
-        <v>0.948</v>
+        <v>1.005</v>
       </c>
       <c r="CB4">
         <v>100</v>
@@ -8335,31 +8326,31 @@
     </row>
     <row r="5" spans="1:117">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>143</v>
       </c>
       <c r="C5">
-        <v>38978.8</v>
+        <v>38310.8</v>
       </c>
       <c r="D5">
-        <v>99.873</v>
+        <v>99.86499999999999</v>
       </c>
       <c r="E5">
-        <v>1.099</v>
+        <v>1.101</v>
       </c>
       <c r="F5">
-        <v>0.8737864077669902</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="G5" t="s">
         <v>129</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J5">
         <v>99.90000000000001</v>
@@ -8380,10 +8371,10 @@
         <v>1.013</v>
       </c>
       <c r="P5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.011</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>100</v>
@@ -8392,10 +8383,10 @@
         <v>1.004</v>
       </c>
       <c r="T5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1.019</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>100</v>
@@ -8431,7 +8422,7 @@
         <v>100</v>
       </c>
       <c r="AG5">
-        <v>1.005</v>
+        <v>0.976</v>
       </c>
       <c r="AH5">
         <v>100</v>
@@ -8566,10 +8557,10 @@
         <v>1.003</v>
       </c>
       <c r="BZ5">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="CA5">
-        <v>1.005</v>
+        <v>0.948</v>
       </c>
       <c r="CB5">
         <v>100</v>
@@ -8688,13 +8679,13 @@
     </row>
     <row r="6" spans="1:117">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>144</v>
       </c>
       <c r="C6">
-        <v>38310.8</v>
+        <v>38330.8</v>
       </c>
       <c r="D6">
         <v>99.86499999999999</v>
@@ -8712,7 +8703,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J6">
         <v>99.90000000000001</v>
@@ -8784,7 +8775,7 @@
         <v>100</v>
       </c>
       <c r="AG6">
-        <v>0.976</v>
+        <v>1.005</v>
       </c>
       <c r="AH6">
         <v>100</v>
@@ -9041,19 +9032,19 @@
     </row>
     <row r="7" spans="1:117">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>145</v>
       </c>
       <c r="C7">
-        <v>38330.8</v>
+        <v>37406.8</v>
       </c>
       <c r="D7">
-        <v>99.86499999999999</v>
+        <v>99.863</v>
       </c>
       <c r="E7">
-        <v>1.101</v>
+        <v>1.093</v>
       </c>
       <c r="F7">
         <v>0.8349514563106796</v>
@@ -9065,13 +9056,13 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J7">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="K7">
-        <v>1.001</v>
+        <v>0.65</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -9394,19 +9385,19 @@
     </row>
     <row r="8" spans="1:117">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>146</v>
       </c>
       <c r="C8">
-        <v>37406.8</v>
+        <v>36937.4</v>
       </c>
       <c r="D8">
-        <v>99.863</v>
+        <v>98.809</v>
       </c>
       <c r="E8">
-        <v>1.093</v>
+        <v>1.104</v>
       </c>
       <c r="F8">
         <v>0.8349514563106796</v>
@@ -9415,16 +9406,16 @@
         <v>129</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J8">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K8">
-        <v>0.65</v>
+        <v>1.001</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -9439,10 +9430,10 @@
         <v>1.013</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.011</v>
       </c>
       <c r="R8">
         <v>100</v>
@@ -9451,10 +9442,10 @@
         <v>1.004</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.019</v>
       </c>
       <c r="V8">
         <v>100</v>
@@ -9625,10 +9616,10 @@
         <v>1.003</v>
       </c>
       <c r="BZ8">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="CA8">
-        <v>0.948</v>
+        <v>1.005</v>
       </c>
       <c r="CB8">
         <v>100</v>
@@ -9637,22 +9628,22 @@
         <v>1.002</v>
       </c>
       <c r="CD8">
-        <v>99.40000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="CE8">
-        <v>1.219</v>
+        <v>1.206</v>
       </c>
       <c r="CF8">
-        <v>100</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="CG8">
-        <v>1.011</v>
+        <v>1.033</v>
       </c>
       <c r="CH8">
-        <v>100</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="CI8">
-        <v>1.018</v>
+        <v>1.071</v>
       </c>
       <c r="CJ8">
         <v>0</v>
@@ -9661,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="CL8">
-        <v>100</v>
+        <v>93.8</v>
       </c>
       <c r="CM8">
         <v>3.853</v>
       </c>
       <c r="CN8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CO8">
-        <v>1.016</v>
+        <v>0</v>
       </c>
       <c r="CP8">
         <v>100</v>
@@ -9679,10 +9670,10 @@
         <v>1.008</v>
       </c>
       <c r="CR8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CS8">
-        <v>1.002</v>
+        <v>0</v>
       </c>
       <c r="CT8">
         <v>100</v>
@@ -9747,7 +9738,7 @@
     </row>
     <row r="9" spans="1:117">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>147</v>
@@ -9771,7 +9762,7 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J9">
         <v>99.90000000000001</v>
@@ -10100,19 +10091,19 @@
     </row>
     <row r="10" spans="1:117">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>148</v>
       </c>
       <c r="C10">
-        <v>36937.4</v>
+        <v>38222.8</v>
       </c>
       <c r="D10">
-        <v>98.809</v>
+        <v>99.867</v>
       </c>
       <c r="E10">
-        <v>1.104</v>
+        <v>1.1</v>
       </c>
       <c r="F10">
         <v>0.8349514563106796</v>
@@ -10121,16 +10112,16 @@
         <v>129</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>1.001</v>
+        <v>0.96</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -10145,10 +10136,10 @@
         <v>1.013</v>
       </c>
       <c r="P10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.011</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>100</v>
@@ -10157,10 +10148,10 @@
         <v>1.004</v>
       </c>
       <c r="T10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1.019</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>100</v>
@@ -10331,10 +10322,10 @@
         <v>1.003</v>
       </c>
       <c r="BZ10">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="CA10">
-        <v>1.005</v>
+        <v>0.948</v>
       </c>
       <c r="CB10">
         <v>100</v>
@@ -10343,22 +10334,22 @@
         <v>1.002</v>
       </c>
       <c r="CD10">
-        <v>92.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="CE10">
-        <v>1.206</v>
+        <v>1.219</v>
       </c>
       <c r="CF10">
-        <v>78.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="CG10">
-        <v>1.033</v>
+        <v>1.011</v>
       </c>
       <c r="CH10">
-        <v>88.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="CI10">
-        <v>1.071</v>
+        <v>1.018</v>
       </c>
       <c r="CJ10">
         <v>0</v>
@@ -10367,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="CL10">
-        <v>93.8</v>
+        <v>100</v>
       </c>
       <c r="CM10">
         <v>3.853</v>
       </c>
       <c r="CN10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CO10">
-        <v>0</v>
+        <v>1.016</v>
       </c>
       <c r="CP10">
         <v>100</v>
@@ -10385,10 +10376,10 @@
         <v>1.008</v>
       </c>
       <c r="CR10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CS10">
-        <v>0</v>
+        <v>1.002</v>
       </c>
       <c r="CT10">
         <v>100</v>
@@ -10453,19 +10444,19 @@
     </row>
     <row r="11" spans="1:117">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>149</v>
       </c>
       <c r="C11">
-        <v>38222.8</v>
+        <v>38094.8</v>
       </c>
       <c r="D11">
-        <v>99.867</v>
+        <v>99.863</v>
       </c>
       <c r="E11">
-        <v>1.1</v>
+        <v>1.099</v>
       </c>
       <c r="F11">
         <v>0.8349514563106796</v>
@@ -10480,10 +10471,10 @@
         <v>135</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="K11">
-        <v>0.96</v>
+        <v>0.909</v>
       </c>
       <c r="L11">
         <v>100</v>
@@ -10801,359 +10792,6 @@
         <v>100</v>
       </c>
       <c r="DM11">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:117">
-      <c r="A12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12">
-        <v>38094.8</v>
-      </c>
-      <c r="D12">
-        <v>99.863</v>
-      </c>
-      <c r="E12">
-        <v>1.099</v>
-      </c>
-      <c r="F12">
-        <v>0.8349514563106796</v>
-      </c>
-      <c r="G12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12">
-        <v>99.8</v>
-      </c>
-      <c r="K12">
-        <v>0.909</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12">
-        <v>1.326</v>
-      </c>
-      <c r="N12">
-        <v>100</v>
-      </c>
-      <c r="O12">
-        <v>1.013</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>100</v>
-      </c>
-      <c r="S12">
-        <v>1.004</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>100</v>
-      </c>
-      <c r="W12">
-        <v>1.014</v>
-      </c>
-      <c r="X12">
-        <v>97.5</v>
-      </c>
-      <c r="Y12">
-        <v>1.113</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>100</v>
-      </c>
-      <c r="AG12">
-        <v>1.005</v>
-      </c>
-      <c r="AH12">
-        <v>100</v>
-      </c>
-      <c r="AI12">
-        <v>1.007</v>
-      </c>
-      <c r="AJ12">
-        <v>100</v>
-      </c>
-      <c r="AK12">
-        <v>1.005</v>
-      </c>
-      <c r="AL12">
-        <v>100</v>
-      </c>
-      <c r="AM12">
-        <v>1.01</v>
-      </c>
-      <c r="AN12">
-        <v>99.7</v>
-      </c>
-      <c r="AO12">
-        <v>1.003</v>
-      </c>
-      <c r="AP12">
-        <v>100</v>
-      </c>
-      <c r="AQ12">
-        <v>1.022</v>
-      </c>
-      <c r="AR12">
-        <v>100</v>
-      </c>
-      <c r="AS12">
-        <v>1.011</v>
-      </c>
-      <c r="AT12">
-        <v>100</v>
-      </c>
-      <c r="AU12">
-        <v>1.001</v>
-      </c>
-      <c r="AV12">
-        <v>100</v>
-      </c>
-      <c r="AW12">
-        <v>1.006</v>
-      </c>
-      <c r="AX12">
-        <v>100</v>
-      </c>
-      <c r="AY12">
-        <v>1.004</v>
-      </c>
-      <c r="AZ12">
-        <v>100</v>
-      </c>
-      <c r="BA12">
-        <v>1.01</v>
-      </c>
-      <c r="BB12">
-        <v>100</v>
-      </c>
-      <c r="BC12">
-        <v>1.003</v>
-      </c>
-      <c r="BD12">
-        <v>100</v>
-      </c>
-      <c r="BE12">
-        <v>1.006</v>
-      </c>
-      <c r="BF12">
-        <v>98.3</v>
-      </c>
-      <c r="BG12">
-        <v>1.002</v>
-      </c>
-      <c r="BH12">
-        <v>100</v>
-      </c>
-      <c r="BI12">
-        <v>1.015</v>
-      </c>
-      <c r="BJ12">
-        <v>100</v>
-      </c>
-      <c r="BK12">
-        <v>1.012</v>
-      </c>
-      <c r="BL12">
-        <v>100</v>
-      </c>
-      <c r="BM12">
-        <v>1.019</v>
-      </c>
-      <c r="BN12">
-        <v>100</v>
-      </c>
-      <c r="BO12">
-        <v>1.019</v>
-      </c>
-      <c r="BP12">
-        <v>100</v>
-      </c>
-      <c r="BQ12">
-        <v>1.006</v>
-      </c>
-      <c r="BR12">
-        <v>100</v>
-      </c>
-      <c r="BS12">
-        <v>1.009</v>
-      </c>
-      <c r="BT12">
-        <v>100</v>
-      </c>
-      <c r="BU12">
-        <v>1.002</v>
-      </c>
-      <c r="BV12">
-        <v>100</v>
-      </c>
-      <c r="BW12">
-        <v>1.001</v>
-      </c>
-      <c r="BX12">
-        <v>100</v>
-      </c>
-      <c r="BY12">
-        <v>1.003</v>
-      </c>
-      <c r="BZ12">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="CA12">
-        <v>0.948</v>
-      </c>
-      <c r="CB12">
-        <v>100</v>
-      </c>
-      <c r="CC12">
-        <v>1.002</v>
-      </c>
-      <c r="CD12">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="CE12">
-        <v>1.219</v>
-      </c>
-      <c r="CF12">
-        <v>100</v>
-      </c>
-      <c r="CG12">
-        <v>1.011</v>
-      </c>
-      <c r="CH12">
-        <v>100</v>
-      </c>
-      <c r="CI12">
-        <v>1.018</v>
-      </c>
-      <c r="CJ12">
-        <v>0</v>
-      </c>
-      <c r="CK12">
-        <v>0</v>
-      </c>
-      <c r="CL12">
-        <v>100</v>
-      </c>
-      <c r="CM12">
-        <v>3.853</v>
-      </c>
-      <c r="CN12">
-        <v>100</v>
-      </c>
-      <c r="CO12">
-        <v>1.016</v>
-      </c>
-      <c r="CP12">
-        <v>100</v>
-      </c>
-      <c r="CQ12">
-        <v>1.008</v>
-      </c>
-      <c r="CR12">
-        <v>100</v>
-      </c>
-      <c r="CS12">
-        <v>1.002</v>
-      </c>
-      <c r="CT12">
-        <v>100</v>
-      </c>
-      <c r="CU12">
-        <v>1.197</v>
-      </c>
-      <c r="CV12">
-        <v>100</v>
-      </c>
-      <c r="CW12">
-        <v>1.005</v>
-      </c>
-      <c r="CX12">
-        <v>100</v>
-      </c>
-      <c r="CY12">
-        <v>1.007</v>
-      </c>
-      <c r="CZ12">
-        <v>100</v>
-      </c>
-      <c r="DA12">
-        <v>1.006</v>
-      </c>
-      <c r="DB12">
-        <v>0</v>
-      </c>
-      <c r="DC12">
-        <v>0</v>
-      </c>
-      <c r="DD12">
-        <v>0</v>
-      </c>
-      <c r="DE12">
-        <v>0</v>
-      </c>
-      <c r="DF12">
-        <v>100</v>
-      </c>
-      <c r="DG12">
-        <v>1.797</v>
-      </c>
-      <c r="DH12">
-        <v>0</v>
-      </c>
-      <c r="DI12">
-        <v>0</v>
-      </c>
-      <c r="DJ12">
-        <v>0</v>
-      </c>
-      <c r="DK12">
-        <v>0</v>
-      </c>
-      <c r="DL12">
-        <v>100</v>
-      </c>
-      <c r="DM12">
         <v>1.02</v>
       </c>
     </row>
@@ -11163,7 +10801,7 @@
       <formula>NA</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA12">
+  <conditionalFormatting sqref="AA2:AA11">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11183,7 +10821,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC12">
+  <conditionalFormatting sqref="AC2:AC11">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11203,7 +10841,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE12">
+  <conditionalFormatting sqref="AE2:AE11">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11223,7 +10861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG12">
+  <conditionalFormatting sqref="AG2:AG11">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11243,7 +10881,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI12">
+  <conditionalFormatting sqref="AI2:AI11">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11263,7 +10901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK12">
+  <conditionalFormatting sqref="AK2:AK11">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11283,7 +10921,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM12">
+  <conditionalFormatting sqref="AM2:AM11">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11303,7 +10941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AO12">
+  <conditionalFormatting sqref="AO2:AO11">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11323,7 +10961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ12">
+  <conditionalFormatting sqref="AQ2:AQ11">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11343,7 +10981,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS2:AS12">
+  <conditionalFormatting sqref="AS2:AS11">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11363,7 +11001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU2:AU12">
+  <conditionalFormatting sqref="AU2:AU11">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11383,7 +11021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW2:AW12">
+  <conditionalFormatting sqref="AW2:AW11">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11403,7 +11041,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY2:AY12">
+  <conditionalFormatting sqref="AY2:AY11">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11423,7 +11061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BA12">
+  <conditionalFormatting sqref="BA2:BA11">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11443,7 +11081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC2:BC12">
+  <conditionalFormatting sqref="BC2:BC11">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11463,7 +11101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE2:BE12">
+  <conditionalFormatting sqref="BE2:BE11">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11483,7 +11121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG2:BG12">
+  <conditionalFormatting sqref="BG2:BG11">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11503,7 +11141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI2:BI12">
+  <conditionalFormatting sqref="BI2:BI11">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11523,7 +11161,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BK12">
+  <conditionalFormatting sqref="BK2:BK11">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11543,7 +11181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM2:BM12">
+  <conditionalFormatting sqref="BM2:BM11">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11563,7 +11201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO2:BO12">
+  <conditionalFormatting sqref="BO2:BO11">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11583,7 +11221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ2:BQ12">
+  <conditionalFormatting sqref="BQ2:BQ11">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11603,7 +11241,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS2:BS12">
+  <conditionalFormatting sqref="BS2:BS11">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11623,7 +11261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU2:BU12">
+  <conditionalFormatting sqref="BU2:BU11">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11643,7 +11281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW2:BW12">
+  <conditionalFormatting sqref="BW2:BW11">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11663,7 +11301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY2:BY12">
+  <conditionalFormatting sqref="BY2:BY11">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11683,17 +11321,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C12">
+  <conditionalFormatting sqref="C2:C11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="num" val="19102.6"/>
+        <cfvo type="num" val="36937.4"/>
         <cfvo type="num" val="38978.8"/>
         <color rgb="FFD9D9D9"/>
         <color rgb="FF949494"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA2:CA12">
+  <conditionalFormatting sqref="CA2:CA11">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11713,7 +11351,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC2:CC12">
+  <conditionalFormatting sqref="CC2:CC11">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11733,7 +11371,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE2:CE12">
+  <conditionalFormatting sqref="CE2:CE11">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11753,7 +11391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG2:CG12">
+  <conditionalFormatting sqref="CG2:CG11">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11773,7 +11411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI2:CI12">
+  <conditionalFormatting sqref="CI2:CI11">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11793,7 +11431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK2:CK12">
+  <conditionalFormatting sqref="CK2:CK11">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11813,7 +11451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM2:CM12">
+  <conditionalFormatting sqref="CM2:CM11">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11833,7 +11471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO2:CO12">
+  <conditionalFormatting sqref="CO2:CO11">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11853,7 +11491,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CQ2:CQ12">
+  <conditionalFormatting sqref="CQ2:CQ11">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11873,7 +11511,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CS2:CS12">
+  <conditionalFormatting sqref="CS2:CS11">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11893,7 +11531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CU2:CU12">
+  <conditionalFormatting sqref="CU2:CU11">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11913,7 +11551,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW2:CW12">
+  <conditionalFormatting sqref="CW2:CW11">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11933,7 +11571,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CY2:CY12">
+  <conditionalFormatting sqref="CY2:CY11">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11953,7 +11591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D12">
+  <conditionalFormatting sqref="D2:D11">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11963,7 +11601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DA2:DA12">
+  <conditionalFormatting sqref="DA2:DA11">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -11983,7 +11621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DC2:DC12">
+  <conditionalFormatting sqref="DC2:DC11">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12003,7 +11641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DE2:DE12">
+  <conditionalFormatting sqref="DE2:DE11">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12023,7 +11661,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DG2:DG12">
+  <conditionalFormatting sqref="DG2:DG11">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12043,7 +11681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DI2:DI12">
+  <conditionalFormatting sqref="DI2:DI11">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12063,7 +11701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DK2:DK12">
+  <conditionalFormatting sqref="DK2:DK11">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12083,7 +11721,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DM2:DM12">
+  <conditionalFormatting sqref="DM2:DM11">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12103,7 +11741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DO2:DO12">
+  <conditionalFormatting sqref="DO2:DO11">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12123,7 +11761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DQ2:DQ12">
+  <conditionalFormatting sqref="DQ2:DQ11">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12143,7 +11781,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DS2:DS12">
+  <conditionalFormatting sqref="DS2:DS11">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12163,7 +11801,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DU2:DU12">
+  <conditionalFormatting sqref="DU2:DU11">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12183,7 +11821,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DW2:DW12">
+  <conditionalFormatting sqref="DW2:DW11">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12203,7 +11841,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DY2:DY12">
+  <conditionalFormatting sqref="DY2:DY11">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12223,7 +11861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E12">
+  <conditionalFormatting sqref="E2:E11">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12233,7 +11871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EA2:EA12">
+  <conditionalFormatting sqref="EA2:EA11">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12253,7 +11891,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EC2:EC12">
+  <conditionalFormatting sqref="EC2:EC11">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12273,7 +11911,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EE2:EE12">
+  <conditionalFormatting sqref="EE2:EE11">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12293,7 +11931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EG2:EG12">
+  <conditionalFormatting sqref="EG2:EG11">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12313,7 +11951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EI2:EI12">
+  <conditionalFormatting sqref="EI2:EI11">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12333,7 +11971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EK2:EK12">
+  <conditionalFormatting sqref="EK2:EK11">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12353,7 +11991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EM2:EM12">
+  <conditionalFormatting sqref="EM2:EM11">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12373,7 +12011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EO2:EO12">
+  <conditionalFormatting sqref="EO2:EO11">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12393,7 +12031,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EQ2:EQ12">
+  <conditionalFormatting sqref="EQ2:EQ11">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12413,7 +12051,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="ES2:ES12">
+  <conditionalFormatting sqref="ES2:ES11">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12433,7 +12071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EU2:EU12">
+  <conditionalFormatting sqref="EU2:EU11">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12453,7 +12091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EW2:EW12">
+  <conditionalFormatting sqref="EW2:EW11">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12473,7 +12111,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EY2:EY12">
+  <conditionalFormatting sqref="EY2:EY11">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12493,7 +12131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F12">
+  <conditionalFormatting sqref="F2:F11">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12503,7 +12141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FA2:FA12">
+  <conditionalFormatting sqref="FA2:FA11">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12523,7 +12161,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FC2:FC12">
+  <conditionalFormatting sqref="FC2:FC11">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12543,7 +12181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FE2:FE12">
+  <conditionalFormatting sqref="FE2:FE11">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12563,7 +12201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FG2:FG12">
+  <conditionalFormatting sqref="FG2:FG11">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12583,7 +12221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FI2:FI12">
+  <conditionalFormatting sqref="FI2:FI11">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12603,7 +12241,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FK2:FK12">
+  <conditionalFormatting sqref="FK2:FK11">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12623,7 +12261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FM2:FM12">
+  <conditionalFormatting sqref="FM2:FM11">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12643,7 +12281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FO2:FO12">
+  <conditionalFormatting sqref="FO2:FO11">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12663,7 +12301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FQ2:FQ12">
+  <conditionalFormatting sqref="FQ2:FQ11">
     <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12683,7 +12321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FS2:FS12">
+  <conditionalFormatting sqref="FS2:FS11">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12703,7 +12341,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FU2:FU12">
+  <conditionalFormatting sqref="FU2:FU11">
     <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12723,7 +12361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FW2:FW12">
+  <conditionalFormatting sqref="FW2:FW11">
     <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12743,7 +12381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FY2:FY12">
+  <conditionalFormatting sqref="FY2:FY11">
     <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12763,7 +12401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G12">
+  <conditionalFormatting sqref="G2:G11">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12773,7 +12411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GA2:GA12">
+  <conditionalFormatting sqref="GA2:GA11">
     <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12793,7 +12431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GC2:GC12">
+  <conditionalFormatting sqref="GC2:GC11">
     <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12813,7 +12451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GE2:GE12">
+  <conditionalFormatting sqref="GE2:GE11">
     <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12833,7 +12471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GG2:GG12">
+  <conditionalFormatting sqref="GG2:GG11">
     <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12853,7 +12491,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GI2:GI12">
+  <conditionalFormatting sqref="GI2:GI11">
     <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12873,7 +12511,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GK2:GK12">
+  <conditionalFormatting sqref="GK2:GK11">
     <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12893,7 +12531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GM2:GM12">
+  <conditionalFormatting sqref="GM2:GM11">
     <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12913,7 +12551,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GO2:GO12">
+  <conditionalFormatting sqref="GO2:GO11">
     <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12933,7 +12571,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GQ2:GQ12">
+  <conditionalFormatting sqref="GQ2:GQ11">
     <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12953,7 +12591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GS2:GS12">
+  <conditionalFormatting sqref="GS2:GS11">
     <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12973,7 +12611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GU2:GU12">
+  <conditionalFormatting sqref="GU2:GU11">
     <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -12993,7 +12631,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GW2:GW12">
+  <conditionalFormatting sqref="GW2:GW11">
     <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13013,7 +12651,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GY2:GY12">
+  <conditionalFormatting sqref="GY2:GY11">
     <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13033,7 +12671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HA2:HA12">
+  <conditionalFormatting sqref="HA2:HA11">
     <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13053,7 +12691,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HC2:HC12">
+  <conditionalFormatting sqref="HC2:HC11">
     <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13073,7 +12711,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HE2:HE12">
+  <conditionalFormatting sqref="HE2:HE11">
     <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13093,7 +12731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HG2:HG12">
+  <conditionalFormatting sqref="HG2:HG11">
     <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13113,7 +12751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K12">
+  <conditionalFormatting sqref="K2:K11">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13133,7 +12771,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M12">
+  <conditionalFormatting sqref="M2:M11">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13153,7 +12791,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O12">
+  <conditionalFormatting sqref="O2:O11">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13173,7 +12811,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q12">
+  <conditionalFormatting sqref="Q2:Q11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13193,7 +12831,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S12">
+  <conditionalFormatting sqref="S2:S11">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13213,7 +12851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U12">
+  <conditionalFormatting sqref="U2:U11">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13233,7 +12871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W12">
+  <conditionalFormatting sqref="W2:W11">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0.0"/>
@@ -13253,7 +12891,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y12">
+  <conditionalFormatting sqref="Y2:Y11">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="num" val="0.0"/>
